--- a/data/pca/factorExposure/factorExposure_2011-12-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-12-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01341838749451974</v>
+        <v>-0.01355997284231335</v>
       </c>
       <c r="C2">
-        <v>0.03359706604438918</v>
+        <v>0.02636348167941917</v>
       </c>
       <c r="D2">
-        <v>-0.01899286483970884</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02286293290329093</v>
+      </c>
+      <c r="E2">
+        <v>0.01241613588591108</v>
+      </c>
+      <c r="F2">
+        <v>-0.02801548584588135</v>
+      </c>
+      <c r="G2">
+        <v>-0.004483052602263332</v>
+      </c>
+      <c r="H2">
+        <v>0.02079342955797697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07612704583093091</v>
+        <v>-0.08940998366232161</v>
       </c>
       <c r="C4">
-        <v>0.05584132073362457</v>
+        <v>0.03792862802132069</v>
       </c>
       <c r="D4">
-        <v>-0.07800843375930945</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06990751970848584</v>
+      </c>
+      <c r="E4">
+        <v>0.008347409438681367</v>
+      </c>
+      <c r="F4">
+        <v>-0.0369093711587029</v>
+      </c>
+      <c r="G4">
+        <v>-0.007991187616831274</v>
+      </c>
+      <c r="H4">
+        <v>-0.04621603671319215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1108831656851485</v>
+        <v>-0.1244643777469153</v>
       </c>
       <c r="C6">
-        <v>0.05505017523440293</v>
+        <v>0.04009412513312289</v>
       </c>
       <c r="D6">
-        <v>-0.002818769378730251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.009165969702169211</v>
+      </c>
+      <c r="E6">
+        <v>-0.02539031832876923</v>
+      </c>
+      <c r="F6">
+        <v>-0.04837230496174269</v>
+      </c>
+      <c r="G6">
+        <v>-0.01425943262149516</v>
+      </c>
+      <c r="H6">
+        <v>0.1118244468788144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.05448393210306232</v>
+        <v>-0.06411432285599099</v>
       </c>
       <c r="C7">
-        <v>0.03208219374944516</v>
+        <v>0.01672118625008607</v>
       </c>
       <c r="D7">
-        <v>-0.03107024431389192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0493614748672824</v>
+      </c>
+      <c r="E7">
+        <v>0.03256060755252425</v>
+      </c>
+      <c r="F7">
+        <v>-0.0412132361572528</v>
+      </c>
+      <c r="G7">
+        <v>0.0308615025972568</v>
+      </c>
+      <c r="H7">
+        <v>-0.01456696432679906</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03870630357413173</v>
+        <v>-0.04242214118912265</v>
       </c>
       <c r="C8">
-        <v>0.0125962508746169</v>
+        <v>0.008766251073312891</v>
       </c>
       <c r="D8">
-        <v>-0.06397705534817857</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02528364945866642</v>
+      </c>
+      <c r="E8">
+        <v>0.01358103530491976</v>
+      </c>
+      <c r="F8">
+        <v>-0.06904804439524602</v>
+      </c>
+      <c r="G8">
+        <v>-0.06983302130861967</v>
+      </c>
+      <c r="H8">
+        <v>0.01415464695012766</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.07056645946621526</v>
+        <v>-0.08055427006123952</v>
       </c>
       <c r="C9">
-        <v>0.04023248713798106</v>
+        <v>0.02388980607961895</v>
       </c>
       <c r="D9">
-        <v>-0.07140371471736527</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06364148376510817</v>
+      </c>
+      <c r="E9">
+        <v>0.02299217693018359</v>
+      </c>
+      <c r="F9">
+        <v>-0.03200572927458695</v>
+      </c>
+      <c r="G9">
+        <v>-0.02369148908880149</v>
+      </c>
+      <c r="H9">
+        <v>-0.04721920219372658</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02748234488968842</v>
+        <v>-0.04407234355208525</v>
       </c>
       <c r="C10">
-        <v>0.02279058448796579</v>
+        <v>0.05680930510059129</v>
       </c>
       <c r="D10">
-        <v>0.1734590806695259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1771954134154857</v>
+      </c>
+      <c r="E10">
+        <v>0.04070311936722602</v>
+      </c>
+      <c r="F10">
+        <v>-0.04778789821637976</v>
+      </c>
+      <c r="G10">
+        <v>0.03547566071011431</v>
+      </c>
+      <c r="H10">
+        <v>0.05638910912214632</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07106537995963282</v>
+        <v>-0.0757285607692746</v>
       </c>
       <c r="C11">
-        <v>0.04468989080980279</v>
+        <v>0.02157701761287064</v>
       </c>
       <c r="D11">
-        <v>-0.05206474606420793</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.0657071498015132</v>
+      </c>
+      <c r="E11">
+        <v>-0.003610541056815708</v>
+      </c>
+      <c r="F11">
+        <v>-0.0316613494570923</v>
+      </c>
+      <c r="G11">
+        <v>-0.04393761517441627</v>
+      </c>
+      <c r="H11">
+        <v>-0.06940850102588535</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.06077448729681621</v>
+        <v>-0.06973116152699173</v>
       </c>
       <c r="C12">
-        <v>0.05363231189540859</v>
+        <v>0.03391653389102638</v>
       </c>
       <c r="D12">
-        <v>-0.04279445105298361</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05069104978324622</v>
+      </c>
+      <c r="E12">
+        <v>0.01275800225561886</v>
+      </c>
+      <c r="F12">
+        <v>-0.02222878855613988</v>
+      </c>
+      <c r="G12">
+        <v>-0.02638441946272879</v>
+      </c>
+      <c r="H12">
+        <v>-0.03355486799380681</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06808770082663865</v>
+        <v>-0.06798702413675684</v>
       </c>
       <c r="C13">
-        <v>0.03515169061692328</v>
+        <v>0.01668749601137341</v>
       </c>
       <c r="D13">
-        <v>-0.04081632584514538</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.03806266056032226</v>
+      </c>
+      <c r="E13">
+        <v>0.006530387886279883</v>
+      </c>
+      <c r="F13">
+        <v>-0.02434515738765308</v>
+      </c>
+      <c r="G13">
+        <v>-0.01956579356357359</v>
+      </c>
+      <c r="H13">
+        <v>-0.05068998130759037</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03246204004914802</v>
+        <v>-0.04051743930963092</v>
       </c>
       <c r="C14">
-        <v>0.0335435971666864</v>
+        <v>0.02866734749002704</v>
       </c>
       <c r="D14">
-        <v>0.007691081979118752</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01272329860969403</v>
+      </c>
+      <c r="E14">
+        <v>0.02646752915429721</v>
+      </c>
+      <c r="F14">
+        <v>-0.01398461721488868</v>
+      </c>
+      <c r="G14">
+        <v>-0.01758537760416778</v>
+      </c>
+      <c r="H14">
+        <v>-0.05870053032014722</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.04140665948310329</v>
+        <v>-0.04041510917963009</v>
       </c>
       <c r="C15">
-        <v>0.01065232443440274</v>
+        <v>0.003180815074782265</v>
       </c>
       <c r="D15">
-        <v>-0.02186083425391996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.008470748714274329</v>
+      </c>
+      <c r="E15">
+        <v>0.03573309634811172</v>
+      </c>
+      <c r="F15">
+        <v>-0.002945721520788106</v>
+      </c>
+      <c r="G15">
+        <v>-0.03023810908847543</v>
+      </c>
+      <c r="H15">
+        <v>-0.02548092785786239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.05940386096017373</v>
+        <v>-0.07099293578639947</v>
       </c>
       <c r="C16">
-        <v>0.04278409857720401</v>
+        <v>0.02510573405800723</v>
       </c>
       <c r="D16">
-        <v>-0.05231942773266014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06317366517946106</v>
+      </c>
+      <c r="E16">
+        <v>0.005256061225942151</v>
+      </c>
+      <c r="F16">
+        <v>-0.02994777179780317</v>
+      </c>
+      <c r="G16">
+        <v>-0.02115626644480762</v>
+      </c>
+      <c r="H16">
+        <v>-0.05101788423509333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06479165638915842</v>
+        <v>-0.06361003904058928</v>
       </c>
       <c r="C20">
-        <v>0.02841392746044977</v>
+        <v>0.009078511902830533</v>
       </c>
       <c r="D20">
-        <v>-0.0448898377770959</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03936868184380624</v>
+      </c>
+      <c r="E20">
+        <v>0.006648323704981798</v>
+      </c>
+      <c r="F20">
+        <v>-0.0266473540977259</v>
+      </c>
+      <c r="G20">
+        <v>-0.01646911480078412</v>
+      </c>
+      <c r="H20">
+        <v>-0.04732318944178524</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.03173333920694503</v>
+        <v>-0.02870557406534428</v>
       </c>
       <c r="C21">
-        <v>0.003669800289537116</v>
+        <v>-0.006880803816002029</v>
       </c>
       <c r="D21">
-        <v>-0.01462426167191746</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02121413542273544</v>
+      </c>
+      <c r="E21">
+        <v>0.04018976863783433</v>
+      </c>
+      <c r="F21">
+        <v>0.01631195718785084</v>
+      </c>
+      <c r="G21">
+        <v>-0.007000241843402089</v>
+      </c>
+      <c r="H21">
+        <v>0.04771969592184049</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.08034596016339078</v>
+        <v>-0.07152603688808917</v>
       </c>
       <c r="C22">
-        <v>0.06090261087621373</v>
+        <v>0.02826128684040021</v>
       </c>
       <c r="D22">
-        <v>-0.144345841259254</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1044309215543595</v>
+      </c>
+      <c r="E22">
+        <v>0.6098644519879949</v>
+      </c>
+      <c r="F22">
+        <v>0.07012905019630544</v>
+      </c>
+      <c r="G22">
+        <v>0.1717358399498241</v>
+      </c>
+      <c r="H22">
+        <v>0.1431258941865225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.0813910745982961</v>
+        <v>-0.07244980291551575</v>
       </c>
       <c r="C23">
-        <v>0.05942981077267664</v>
+        <v>0.02676694508393525</v>
       </c>
       <c r="D23">
-        <v>-0.1455923290514015</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1054844705932789</v>
+      </c>
+      <c r="E23">
+        <v>0.6119788686186477</v>
+      </c>
+      <c r="F23">
+        <v>0.06949420230804072</v>
+      </c>
+      <c r="G23">
+        <v>0.1662318409794003</v>
+      </c>
+      <c r="H23">
+        <v>0.138634435709863</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07786223617782348</v>
+        <v>-0.08154087339694818</v>
       </c>
       <c r="C24">
-        <v>0.05613034111643869</v>
+        <v>0.03108106106761113</v>
       </c>
       <c r="D24">
-        <v>-0.05545197092381198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06312281768890779</v>
+      </c>
+      <c r="E24">
+        <v>0.01211665139376046</v>
+      </c>
+      <c r="F24">
+        <v>-0.03644001028363635</v>
+      </c>
+      <c r="G24">
+        <v>-0.0367097386326783</v>
+      </c>
+      <c r="H24">
+        <v>-0.03787896783839146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07471084717911726</v>
+        <v>-0.07974670188340079</v>
       </c>
       <c r="C25">
-        <v>0.05572560832679618</v>
+        <v>0.033803341832964</v>
       </c>
       <c r="D25">
-        <v>-0.055821102788742</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05152386595272559</v>
+      </c>
+      <c r="E25">
+        <v>0.01837853017897017</v>
+      </c>
+      <c r="F25">
+        <v>-0.03452786050188682</v>
+      </c>
+      <c r="G25">
+        <v>-0.04797782770041933</v>
+      </c>
+      <c r="H25">
+        <v>-0.0417658617286986</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04667359367771452</v>
+        <v>-0.04632904269076792</v>
       </c>
       <c r="C26">
-        <v>0.0156217810861083</v>
+        <v>0.004560300453288205</v>
       </c>
       <c r="D26">
-        <v>-0.006483616764143493</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01848841378948529</v>
+      </c>
+      <c r="E26">
+        <v>0.04227321696439833</v>
+      </c>
+      <c r="F26">
+        <v>-0.03234698515278988</v>
+      </c>
+      <c r="G26">
+        <v>-0.01546167020775231</v>
+      </c>
+      <c r="H26">
+        <v>-0.04455014474796319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.04423728993200096</v>
+        <v>-0.06742997908685179</v>
       </c>
       <c r="C28">
-        <v>0.06662903534437292</v>
+        <v>0.1143300528768703</v>
       </c>
       <c r="D28">
-        <v>0.3079654660036587</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2975817199690385</v>
+      </c>
+      <c r="E28">
+        <v>0.03721115674700577</v>
+      </c>
+      <c r="F28">
+        <v>-0.0526017996213296</v>
+      </c>
+      <c r="G28">
+        <v>-0.01882441941552608</v>
+      </c>
+      <c r="H28">
+        <v>0.04789764549148511</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04467272113920803</v>
+        <v>-0.04706054981328826</v>
       </c>
       <c r="C29">
-        <v>0.031185762134398</v>
+        <v>0.0224612744721249</v>
       </c>
       <c r="D29">
-        <v>-0.002998793529000768</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01231729556339339</v>
+      </c>
+      <c r="E29">
+        <v>0.05595647953327723</v>
+      </c>
+      <c r="F29">
+        <v>-0.01200268616890788</v>
+      </c>
+      <c r="G29">
+        <v>-0.008562429382393174</v>
+      </c>
+      <c r="H29">
+        <v>-0.06897397827294083</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1293235775221421</v>
+        <v>-0.1278580116358919</v>
       </c>
       <c r="C30">
-        <v>0.09353656573337833</v>
+        <v>0.0579794386277417</v>
       </c>
       <c r="D30">
-        <v>-0.114261082197041</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08155764657910543</v>
+      </c>
+      <c r="E30">
+        <v>0.05463038929458542</v>
+      </c>
+      <c r="F30">
+        <v>-0.01396498792192688</v>
+      </c>
+      <c r="G30">
+        <v>-0.05667201991013079</v>
+      </c>
+      <c r="H30">
+        <v>0.02739087858031724</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04901492546067641</v>
+        <v>-0.04961640133405947</v>
       </c>
       <c r="C31">
-        <v>0.02474122273776902</v>
+        <v>0.01048567193284003</v>
       </c>
       <c r="D31">
-        <v>-0.01813340547483136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03303137541459167</v>
+      </c>
+      <c r="E31">
+        <v>0.02350029774593963</v>
+      </c>
+      <c r="F31">
+        <v>-0.009281789685362687</v>
+      </c>
+      <c r="G31">
+        <v>0.00164383826636869</v>
+      </c>
+      <c r="H31">
+        <v>-0.06819543204290593</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03355169529787951</v>
+        <v>-0.03726261987901894</v>
       </c>
       <c r="C32">
-        <v>0.02149056652159914</v>
+        <v>0.02004902824283574</v>
       </c>
       <c r="D32">
-        <v>-0.02910413174454366</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.009515244193423289</v>
+      </c>
+      <c r="E32">
+        <v>0.04801414846893762</v>
+      </c>
+      <c r="F32">
+        <v>-5.901590028162004e-05</v>
+      </c>
+      <c r="G32">
+        <v>-0.04772357564857765</v>
+      </c>
+      <c r="H32">
+        <v>-0.01946028743177111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08676047182679403</v>
+        <v>-0.09493655164515483</v>
       </c>
       <c r="C33">
-        <v>0.04806764184836786</v>
+        <v>0.02527580868252707</v>
       </c>
       <c r="D33">
-        <v>-0.04649542645777541</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.05023785822650599</v>
+      </c>
+      <c r="E33">
+        <v>0.0129081238308308</v>
+      </c>
+      <c r="F33">
+        <v>-0.0007690455364392684</v>
+      </c>
+      <c r="G33">
+        <v>-0.007838088800071889</v>
+      </c>
+      <c r="H33">
+        <v>-0.069513146041656</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.0596485676412228</v>
+        <v>-0.06536477189357588</v>
       </c>
       <c r="C34">
-        <v>0.0264238128253241</v>
+        <v>0.00875615230634867</v>
       </c>
       <c r="D34">
-        <v>-0.04750416170020935</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04903719887053049</v>
+      </c>
+      <c r="E34">
+        <v>0.00746151833843171</v>
+      </c>
+      <c r="F34">
+        <v>-0.02116802021350407</v>
+      </c>
+      <c r="G34">
+        <v>-0.03125512662700856</v>
+      </c>
+      <c r="H34">
+        <v>-0.04835031306038763</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03690845352012355</v>
+        <v>-0.03865667131101283</v>
       </c>
       <c r="C35">
-        <v>0.01145553436531423</v>
+        <v>0.004635506261278934</v>
       </c>
       <c r="D35">
-        <v>-0.02200526872604259</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01596947769595133</v>
+      </c>
+      <c r="E35">
+        <v>0.02353666648788755</v>
+      </c>
+      <c r="F35">
+        <v>0.01785514788049434</v>
+      </c>
+      <c r="G35">
+        <v>0.003767326629701731</v>
+      </c>
+      <c r="H35">
+        <v>-0.03218491199134245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02548003581385003</v>
+        <v>-0.02983221253476897</v>
       </c>
       <c r="C36">
-        <v>0.02018758945194909</v>
+        <v>0.01511444122373776</v>
       </c>
       <c r="D36">
-        <v>-0.01819039067223617</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.017133899662778</v>
+      </c>
+      <c r="E36">
+        <v>0.03034401650634438</v>
+      </c>
+      <c r="F36">
+        <v>-0.02820084622980706</v>
+      </c>
+      <c r="G36">
+        <v>-0.005895923516599421</v>
+      </c>
+      <c r="H36">
+        <v>-0.04929794234253945</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.04789269499467001</v>
+        <v>-0.04765983375647206</v>
       </c>
       <c r="C38">
-        <v>0.006242392323373733</v>
+        <v>-0.003702688590919159</v>
       </c>
       <c r="D38">
-        <v>-0.01264720434057837</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01864835177935096</v>
+      </c>
+      <c r="E38">
+        <v>0.04758499072665647</v>
+      </c>
+      <c r="F38">
+        <v>0.00304039219676891</v>
+      </c>
+      <c r="G38">
+        <v>-0.002089467642310697</v>
+      </c>
+      <c r="H38">
+        <v>-0.02230356035245716</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09128974568571259</v>
+        <v>-0.1010475235723774</v>
       </c>
       <c r="C39">
-        <v>0.06782737011774038</v>
+        <v>0.04347823979273731</v>
       </c>
       <c r="D39">
-        <v>-0.05325931531438078</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06393637522598009</v>
+      </c>
+      <c r="E39">
+        <v>-0.000114201180466634</v>
+      </c>
+      <c r="F39">
+        <v>0.002436225083115516</v>
+      </c>
+      <c r="G39">
+        <v>-0.04660364412290077</v>
+      </c>
+      <c r="H39">
+        <v>-0.01805743202678457</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.08138573727051659</v>
+        <v>-0.06316477432254808</v>
       </c>
       <c r="C40">
-        <v>0.03778311792209589</v>
+        <v>0.004284754846862856</v>
       </c>
       <c r="D40">
-        <v>-0.01038460377690802</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03409140671647373</v>
+      </c>
+      <c r="E40">
+        <v>0.0370238240270603</v>
+      </c>
+      <c r="F40">
+        <v>0.0345748707777664</v>
+      </c>
+      <c r="G40">
+        <v>-0.05750660827642157</v>
+      </c>
+      <c r="H40">
+        <v>0.06699700583103373</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04606904662268727</v>
+        <v>-0.04752863270472644</v>
       </c>
       <c r="C41">
-        <v>0.01332188095783484</v>
+        <v>0.0005654709410267046</v>
       </c>
       <c r="D41">
-        <v>-0.03693473050677341</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03076040250517273</v>
+      </c>
+      <c r="E41">
+        <v>0.002355206074014215</v>
+      </c>
+      <c r="F41">
+        <v>0.01256446133911206</v>
+      </c>
+      <c r="G41">
+        <v>-0.008489247801233736</v>
+      </c>
+      <c r="H41">
+        <v>-0.02611948759063982</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.05438481634560837</v>
+        <v>-0.06117895365718651</v>
       </c>
       <c r="C43">
-        <v>0.02889033975933766</v>
+        <v>0.01698469980515983</v>
       </c>
       <c r="D43">
-        <v>-0.009979733824791542</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02778267511728662</v>
+      </c>
+      <c r="E43">
+        <v>0.0203318481681203</v>
+      </c>
+      <c r="F43">
+        <v>-0.01438629817591142</v>
+      </c>
+      <c r="G43">
+        <v>0.01034481718134034</v>
+      </c>
+      <c r="H43">
+        <v>-0.06226210903395201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09672284032871502</v>
+        <v>-0.09436873209856933</v>
       </c>
       <c r="C44">
-        <v>0.08601014788804812</v>
+        <v>0.05317138871406685</v>
       </c>
       <c r="D44">
-        <v>-0.06835213841254896</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.07205343239076584</v>
+      </c>
+      <c r="E44">
+        <v>0.06669870977901995</v>
+      </c>
+      <c r="F44">
+        <v>-0.08750384231675347</v>
+      </c>
+      <c r="G44">
+        <v>-0.06676563007949585</v>
+      </c>
+      <c r="H44">
+        <v>-0.1039495832683483</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02702824267374858</v>
+        <v>-0.03553267339039951</v>
       </c>
       <c r="C46">
-        <v>0.01787010567453323</v>
+        <v>0.01140506019851942</v>
       </c>
       <c r="D46">
-        <v>-0.03212504025201676</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03697163879684576</v>
+      </c>
+      <c r="E46">
+        <v>0.03171038792428818</v>
+      </c>
+      <c r="F46">
+        <v>-0.01414985245843448</v>
+      </c>
+      <c r="G46">
+        <v>0.0001135275216135225</v>
+      </c>
+      <c r="H46">
+        <v>-0.02470441995181062</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03325539479385203</v>
+        <v>-0.04067289218418529</v>
       </c>
       <c r="C47">
-        <v>0.02363453754887788</v>
+        <v>0.01869788634801029</v>
       </c>
       <c r="D47">
-        <v>-9.609430409541228e-05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.008083307201905043</v>
+      </c>
+      <c r="E47">
+        <v>0.04137095790763326</v>
+      </c>
+      <c r="F47">
+        <v>0.009269975126496311</v>
+      </c>
+      <c r="G47">
+        <v>0.02806668892191126</v>
+      </c>
+      <c r="H47">
+        <v>-0.02952576503815114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.037038072772888</v>
+        <v>-0.040515515349686</v>
       </c>
       <c r="C48">
-        <v>0.02466034295491685</v>
+        <v>0.01488955469379994</v>
       </c>
       <c r="D48">
-        <v>-0.02777379498647222</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01956739229351393</v>
+      </c>
+      <c r="E48">
+        <v>0.03823363264040383</v>
+      </c>
+      <c r="F48">
+        <v>-0.01086744003799171</v>
+      </c>
+      <c r="G48">
+        <v>-0.01910816053743651</v>
+      </c>
+      <c r="H48">
+        <v>-0.02485468158423345</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1637563607926626</v>
+        <v>-0.2002541533683681</v>
       </c>
       <c r="C49">
-        <v>0.05301001294665846</v>
+        <v>0.03505184230456405</v>
       </c>
       <c r="D49">
-        <v>-0.002129826968562609</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.02462019520601968</v>
+      </c>
+      <c r="E49">
+        <v>-0.1656689930403405</v>
+      </c>
+      <c r="F49">
+        <v>-0.04362353366414272</v>
+      </c>
+      <c r="G49">
+        <v>0.1535875966108618</v>
+      </c>
+      <c r="H49">
+        <v>0.2219578120285589</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.04334970518075171</v>
+        <v>-0.04558851492409397</v>
       </c>
       <c r="C50">
-        <v>0.02513988833666406</v>
+        <v>0.0126545377674968</v>
       </c>
       <c r="D50">
-        <v>-0.03629991249281417</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03891844362206195</v>
+      </c>
+      <c r="E50">
+        <v>0.03320945377822731</v>
+      </c>
+      <c r="F50">
+        <v>-0.005269453122528456</v>
+      </c>
+      <c r="G50">
+        <v>-0.0007858833154239544</v>
+      </c>
+      <c r="H50">
+        <v>-0.07947696525079866</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02736364962681308</v>
+        <v>-0.03431130981731443</v>
       </c>
       <c r="C51">
-        <v>0.01022613484289975</v>
+        <v>0.006450846233439268</v>
       </c>
       <c r="D51">
-        <v>0.003421831194724971</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.001227108837762298</v>
+      </c>
+      <c r="E51">
+        <v>0.01037611744944367</v>
+      </c>
+      <c r="F51">
+        <v>-0.006969563176310658</v>
+      </c>
+      <c r="G51">
+        <v>0.0181969792078689</v>
+      </c>
+      <c r="H51">
+        <v>0.02151326445194338</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.154065140590583</v>
+        <v>-0.1604602746546342</v>
       </c>
       <c r="C53">
-        <v>0.07613463352351943</v>
+        <v>0.04682017931691822</v>
       </c>
       <c r="D53">
-        <v>0.003137607449718428</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02583454859699325</v>
+      </c>
+      <c r="E53">
+        <v>-0.03272765185019734</v>
+      </c>
+      <c r="F53">
+        <v>-9.794286950910258e-06</v>
+      </c>
+      <c r="G53">
+        <v>-0.01303190883362528</v>
+      </c>
+      <c r="H53">
+        <v>-0.2009439058597138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05863458393120529</v>
+        <v>-0.05814673853734918</v>
       </c>
       <c r="C54">
-        <v>0.02439242544644887</v>
+        <v>0.01266241026751016</v>
       </c>
       <c r="D54">
-        <v>-0.01638844053874737</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01390948317146519</v>
+      </c>
+      <c r="E54">
+        <v>0.05429472443754123</v>
+      </c>
+      <c r="F54">
+        <v>-0.01435797154788131</v>
+      </c>
+      <c r="G54">
+        <v>-0.05770248989854089</v>
+      </c>
+      <c r="H54">
+        <v>-0.03948750489944082</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1034923228498068</v>
+        <v>-0.1038036938475677</v>
       </c>
       <c r="C55">
-        <v>0.05440288397701842</v>
+        <v>0.03120980953391862</v>
       </c>
       <c r="D55">
-        <v>-0.01262515645566416</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02945125648338916</v>
+      </c>
+      <c r="E55">
+        <v>-6.446968481587388e-05</v>
+      </c>
+      <c r="F55">
+        <v>-0.01517684292918772</v>
+      </c>
+      <c r="G55">
+        <v>-0.02629116444349201</v>
+      </c>
+      <c r="H55">
+        <v>-0.1572692028552791</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1491322251333182</v>
+        <v>-0.1563228491658999</v>
       </c>
       <c r="C56">
-        <v>0.08192705274517384</v>
+        <v>0.04910696564746073</v>
       </c>
       <c r="D56">
-        <v>-0.001569073150485689</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04086959705219869</v>
+      </c>
+      <c r="E56">
+        <v>-0.01366642222516681</v>
+      </c>
+      <c r="F56">
+        <v>-0.02316736061712457</v>
+      </c>
+      <c r="G56">
+        <v>-0.02478357501601211</v>
+      </c>
+      <c r="H56">
+        <v>-0.2027882667632157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1307171281821855</v>
+        <v>-0.09916823399888079</v>
       </c>
       <c r="C58">
-        <v>-0.01311146230024426</v>
+        <v>-0.05672246177707795</v>
       </c>
       <c r="D58">
-        <v>-0.05055584192216751</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03166670020253041</v>
+      </c>
+      <c r="E58">
+        <v>0.1217339352076872</v>
+      </c>
+      <c r="F58">
+        <v>-0.02641248360494034</v>
+      </c>
+      <c r="G58">
+        <v>0.07958254704793138</v>
+      </c>
+      <c r="H58">
+        <v>0.1434064822927705</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.118676175128692</v>
+        <v>-0.1440047233071396</v>
       </c>
       <c r="C59">
-        <v>0.0730497496524086</v>
+        <v>0.1176458868268437</v>
       </c>
       <c r="D59">
-        <v>0.3991592048178079</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3553428948075484</v>
+      </c>
+      <c r="E59">
+        <v>0.03306026335202725</v>
+      </c>
+      <c r="F59">
+        <v>-0.001077380664575613</v>
+      </c>
+      <c r="G59">
+        <v>-0.001185510139076675</v>
+      </c>
+      <c r="H59">
+        <v>-0.009682882597035647</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2088938960206788</v>
+        <v>-0.2397539390352039</v>
       </c>
       <c r="C60">
-        <v>0.09371428313148626</v>
+        <v>0.06055632482727387</v>
       </c>
       <c r="D60">
-        <v>-0.009873178266720592</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04372744749351521</v>
+      </c>
+      <c r="E60">
+        <v>-0.1131816727966756</v>
+      </c>
+      <c r="F60">
+        <v>-0.04647455496197655</v>
+      </c>
+      <c r="G60">
+        <v>0.0367315540082122</v>
+      </c>
+      <c r="H60">
+        <v>0.1452104615995116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.07973985918600578</v>
+        <v>-0.08588155237502361</v>
       </c>
       <c r="C61">
-        <v>0.04537957289334709</v>
+        <v>0.02678997894713406</v>
       </c>
       <c r="D61">
-        <v>-0.03392619592308575</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04363318488183048</v>
+      </c>
+      <c r="E61">
+        <v>0.006792630456837871</v>
+      </c>
+      <c r="F61">
+        <v>-0.008067313763394236</v>
+      </c>
+      <c r="G61">
+        <v>-0.03498656077691802</v>
+      </c>
+      <c r="H61">
+        <v>-0.05811223182667504</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1330151949445801</v>
+        <v>-0.1373674388134188</v>
       </c>
       <c r="C62">
-        <v>0.06210701670332665</v>
+        <v>0.03028677466598155</v>
       </c>
       <c r="D62">
-        <v>0.00144314924827187</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04347504490639447</v>
+      </c>
+      <c r="E62">
+        <v>-0.0442529087260076</v>
+      </c>
+      <c r="F62">
+        <v>0.01097009328731036</v>
+      </c>
+      <c r="G62">
+        <v>-0.05161810187104966</v>
+      </c>
+      <c r="H62">
+        <v>-0.2024361530204773</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05173088274670437</v>
+        <v>-0.05026293747842049</v>
       </c>
       <c r="C63">
-        <v>0.02457705098188482</v>
+        <v>0.0137885461259592</v>
       </c>
       <c r="D63">
-        <v>-0.02278408971109462</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01921207551652802</v>
+      </c>
+      <c r="E63">
+        <v>0.04474514093668882</v>
+      </c>
+      <c r="F63">
+        <v>-0.0004396881684324781</v>
+      </c>
+      <c r="G63">
+        <v>-0.03394327169433464</v>
+      </c>
+      <c r="H63">
+        <v>-0.03013696406946628</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1070686551681606</v>
+        <v>-0.1101390502692899</v>
       </c>
       <c r="C64">
-        <v>0.03736020082930919</v>
+        <v>0.01779626788784286</v>
       </c>
       <c r="D64">
-        <v>-0.02080899036205858</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02759612937415497</v>
+      </c>
+      <c r="E64">
+        <v>0.03910371827134192</v>
+      </c>
+      <c r="F64">
+        <v>-0.0442533517138262</v>
+      </c>
+      <c r="G64">
+        <v>-0.06118735220508556</v>
+      </c>
+      <c r="H64">
+        <v>-0.02503015526510368</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1257617188015846</v>
+        <v>-0.129062444308556</v>
       </c>
       <c r="C65">
-        <v>0.05881175750339428</v>
+        <v>0.04060609880605405</v>
       </c>
       <c r="D65">
-        <v>-0.01201498901757392</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01449486751803825</v>
+      </c>
+      <c r="E65">
+        <v>-0.00588913195070145</v>
+      </c>
+      <c r="F65">
+        <v>-0.03691986177627461</v>
+      </c>
+      <c r="G65">
+        <v>-0.03703018863555083</v>
+      </c>
+      <c r="H65">
+        <v>0.128080041551215</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1469017770731157</v>
+        <v>-0.151430189175605</v>
       </c>
       <c r="C66">
-        <v>0.07121962760952952</v>
+        <v>0.03294160872590134</v>
       </c>
       <c r="D66">
-        <v>-0.0979015808961114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1011657423324219</v>
+      </c>
+      <c r="E66">
+        <v>-0.02874993504103208</v>
+      </c>
+      <c r="F66">
+        <v>-0.003098186315654834</v>
+      </c>
+      <c r="G66">
+        <v>-0.07350602229696887</v>
+      </c>
+      <c r="H66">
+        <v>-0.07987276218961709</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07785897212195944</v>
+        <v>-0.08710020263009358</v>
       </c>
       <c r="C67">
-        <v>0.0127553801834815</v>
+        <v>0.0001785941099172843</v>
       </c>
       <c r="D67">
-        <v>-0.01876811104822756</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03060779046938253</v>
+      </c>
+      <c r="E67">
+        <v>0.02034850312566537</v>
+      </c>
+      <c r="F67">
+        <v>-0.01297925158069005</v>
+      </c>
+      <c r="G67">
+        <v>0.0127169602415692</v>
+      </c>
+      <c r="H67">
+        <v>-0.01877781504657323</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05271999929126912</v>
+        <v>-0.06143668271032927</v>
       </c>
       <c r="C68">
-        <v>0.04683907132338602</v>
+        <v>0.08619282849799439</v>
       </c>
       <c r="D68">
-        <v>0.2599320632512961</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2634057500619042</v>
+      </c>
+      <c r="E68">
+        <v>0.04687217881676078</v>
+      </c>
+      <c r="F68">
+        <v>-0.01355680634350789</v>
+      </c>
+      <c r="G68">
+        <v>-1.717213215310161e-05</v>
+      </c>
+      <c r="H68">
+        <v>-0.02100549146682385</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05302506957214502</v>
+        <v>-0.05231794972109392</v>
       </c>
       <c r="C69">
-        <v>0.01871715124832051</v>
+        <v>0.004856530494654564</v>
       </c>
       <c r="D69">
-        <v>-0.02287348439954864</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01959277813796685</v>
+      </c>
+      <c r="E69">
+        <v>0.02383838692296491</v>
+      </c>
+      <c r="F69">
+        <v>0.01306280482664355</v>
+      </c>
+      <c r="G69">
+        <v>-0.0009185277739277752</v>
+      </c>
+      <c r="H69">
+        <v>-0.04434949815481545</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.004197972044808751</v>
+        <v>-0.02870973488255993</v>
       </c>
       <c r="C70">
-        <v>-0.005724049498229857</v>
+        <v>-0.001350902885009498</v>
       </c>
       <c r="D70">
-        <v>0.01177899532878082</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.007647615424774865</v>
+      </c>
+      <c r="E70">
+        <v>-0.0243486684555436</v>
+      </c>
+      <c r="F70">
+        <v>0.007536652787122931</v>
+      </c>
+      <c r="G70">
+        <v>0.02577870284003923</v>
+      </c>
+      <c r="H70">
+        <v>0.04156843301725578</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05221860725531494</v>
+        <v>-0.06822094788522413</v>
       </c>
       <c r="C71">
-        <v>0.04844815585706422</v>
+        <v>0.09793096636658161</v>
       </c>
       <c r="D71">
-        <v>0.2936232236115736</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2913441920672082</v>
+      </c>
+      <c r="E71">
+        <v>0.04729082626732244</v>
+      </c>
+      <c r="F71">
+        <v>-0.0391230449984368</v>
+      </c>
+      <c r="G71">
+        <v>0.0003202252906377444</v>
+      </c>
+      <c r="H71">
+        <v>-0.01673759974539461</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1412791449194061</v>
+        <v>-0.1445914927068066</v>
       </c>
       <c r="C72">
-        <v>0.06371399951206408</v>
+        <v>0.03561413859224052</v>
       </c>
       <c r="D72">
-        <v>0.01019886110773202</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.003480259072596907</v>
+      </c>
+      <c r="E72">
+        <v>-0.05094008332781517</v>
+      </c>
+      <c r="F72">
+        <v>0.1597004610712331</v>
+      </c>
+      <c r="G72">
+        <v>-0.1077573582362642</v>
+      </c>
+      <c r="H72">
+        <v>-0.0003793285599478904</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2847555098584287</v>
+        <v>-0.2890752906672578</v>
       </c>
       <c r="C73">
-        <v>0.09578117389019405</v>
+        <v>0.02346588640982583</v>
       </c>
       <c r="D73">
-        <v>-0.03969370151473323</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.09429434227173435</v>
+      </c>
+      <c r="E73">
+        <v>-0.2554395899838878</v>
+      </c>
+      <c r="F73">
+        <v>-0.07472972837227172</v>
+      </c>
+      <c r="G73">
+        <v>0.2595073865456753</v>
+      </c>
+      <c r="H73">
+        <v>0.3827560800294701</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.08372661010816537</v>
+        <v>-0.09262390295514303</v>
       </c>
       <c r="C74">
-        <v>0.07600799034495406</v>
+        <v>0.05474815567064284</v>
       </c>
       <c r="D74">
-        <v>-0.003692312086113536</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03829989741149195</v>
+      </c>
+      <c r="E74">
+        <v>-0.005933613892062703</v>
+      </c>
+      <c r="F74">
+        <v>0.001845265771155807</v>
+      </c>
+      <c r="G74">
+        <v>0.02399801038853583</v>
+      </c>
+      <c r="H74">
+        <v>-0.132827520749909</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.1005954475529519</v>
+        <v>-0.1024515461350248</v>
       </c>
       <c r="C75">
-        <v>0.04806632165858451</v>
+        <v>0.02095164258836573</v>
       </c>
       <c r="D75">
-        <v>-0.01170046315104854</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02492733527634727</v>
+      </c>
+      <c r="E75">
+        <v>-0.001096787450178532</v>
+      </c>
+      <c r="F75">
+        <v>-0.001077985665999942</v>
+      </c>
+      <c r="G75">
+        <v>0.001912286285879703</v>
+      </c>
+      <c r="H75">
+        <v>-0.09553349323533322</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1322063388589807</v>
+        <v>-0.1415794386812553</v>
       </c>
       <c r="C76">
-        <v>0.07619210645338652</v>
+        <v>0.04724906571325724</v>
       </c>
       <c r="D76">
-        <v>-0.0242869083068541</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05337435280332416</v>
+      </c>
+      <c r="E76">
+        <v>0.01226626285871491</v>
+      </c>
+      <c r="F76">
+        <v>-0.03142065274097714</v>
+      </c>
+      <c r="G76">
+        <v>-0.02762898970674821</v>
+      </c>
+      <c r="H76">
+        <v>-0.223022668081011</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1199133821392011</v>
+        <v>-0.1022168307159754</v>
       </c>
       <c r="C77">
-        <v>0.02719015930879838</v>
+        <v>-0.00953593864281501</v>
       </c>
       <c r="D77">
-        <v>-0.07986859366239357</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.03831500926483703</v>
+      </c>
+      <c r="E77">
+        <v>0.05463710181048212</v>
+      </c>
+      <c r="F77">
+        <v>-0.07915184670693677</v>
+      </c>
+      <c r="G77">
+        <v>-0.8009540600684356</v>
+      </c>
+      <c r="H77">
+        <v>0.3814767894602515</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.1077788797184216</v>
+        <v>-0.152820908209913</v>
       </c>
       <c r="C78">
-        <v>0.04268590703229003</v>
+        <v>0.03568746152794371</v>
       </c>
       <c r="D78">
-        <v>-0.0881242977477259</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07942241908578397</v>
+      </c>
+      <c r="E78">
+        <v>0.05643491172937842</v>
+      </c>
+      <c r="F78">
+        <v>-0.05160451701754187</v>
+      </c>
+      <c r="G78">
+        <v>-0.03011463469669876</v>
+      </c>
+      <c r="H78">
+        <v>0.06558011854778016</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1445018407184303</v>
+        <v>-0.1463426304267102</v>
       </c>
       <c r="C79">
-        <v>0.06971670119190686</v>
+        <v>0.0344891541343568</v>
       </c>
       <c r="D79">
-        <v>-0.01961936875527369</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.04079453255625697</v>
+      </c>
+      <c r="E79">
+        <v>-0.01209802260020418</v>
+      </c>
+      <c r="F79">
+        <v>-0.01742237489711821</v>
+      </c>
+      <c r="G79">
+        <v>-0.02917989201315413</v>
+      </c>
+      <c r="H79">
+        <v>-0.1585526582693997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04139126462842375</v>
+        <v>-0.04223282681650007</v>
       </c>
       <c r="C80">
-        <v>0.01909504767195925</v>
+        <v>0.01055494584588764</v>
       </c>
       <c r="D80">
-        <v>-0.03135201212853625</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01343057522533279</v>
+      </c>
+      <c r="E80">
+        <v>-0.04088752391429123</v>
+      </c>
+      <c r="F80">
+        <v>-0.006753025917132511</v>
+      </c>
+      <c r="G80">
+        <v>0.01542786223221431</v>
+      </c>
+      <c r="H80">
+        <v>-0.0405107881441859</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1220344541888949</v>
+        <v>-0.1240182532414751</v>
       </c>
       <c r="C81">
-        <v>0.05880370272425791</v>
+        <v>0.03120450384879401</v>
       </c>
       <c r="D81">
-        <v>-0.02582038647973147</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.02825549042122549</v>
+      </c>
+      <c r="E81">
+        <v>0.006767542970805666</v>
+      </c>
+      <c r="F81">
+        <v>-0.01710334405630449</v>
+      </c>
+      <c r="G81">
+        <v>-0.0005241670909452782</v>
+      </c>
+      <c r="H81">
+        <v>-0.139930773716842</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1342539674829765</v>
+        <v>-0.1314487275823309</v>
       </c>
       <c r="C82">
-        <v>0.06886768942428956</v>
+        <v>0.03830331849440025</v>
       </c>
       <c r="D82">
-        <v>-0.0007893273034463668</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.03427450738759767</v>
+      </c>
+      <c r="E82">
+        <v>-0.02221793620010824</v>
+      </c>
+      <c r="F82">
+        <v>-0.04036813424954591</v>
+      </c>
+      <c r="G82">
+        <v>-0.01484758749419878</v>
+      </c>
+      <c r="H82">
+        <v>-0.215201259955424</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.06118427044301813</v>
+        <v>-0.07733530061747154</v>
       </c>
       <c r="C83">
-        <v>-0.03242759285455186</v>
+        <v>-0.04073057317137305</v>
       </c>
       <c r="D83">
-        <v>-0.02080390940685134</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.01753573345760023</v>
+      </c>
+      <c r="E83">
+        <v>0.01708259886120718</v>
+      </c>
+      <c r="F83">
+        <v>-0.03057286095994567</v>
+      </c>
+      <c r="G83">
+        <v>0.04325519362089996</v>
+      </c>
+      <c r="H83">
+        <v>0.04423505219965349</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02471757615298007</v>
+        <v>-0.03214381638869983</v>
       </c>
       <c r="C84">
-        <v>0.02279793321341207</v>
+        <v>0.01288009565441059</v>
       </c>
       <c r="D84">
-        <v>-0.04124750231342577</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03991012776114893</v>
+      </c>
+      <c r="E84">
+        <v>0.01708226978322294</v>
+      </c>
+      <c r="F84">
+        <v>0.0349455716236282</v>
+      </c>
+      <c r="G84">
+        <v>0.02749960895299767</v>
+      </c>
+      <c r="H84">
+        <v>-0.02975421931461932</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1179278449892623</v>
+        <v>-0.1221094486727699</v>
       </c>
       <c r="C85">
-        <v>0.04043795159166194</v>
+        <v>0.01501643970975178</v>
       </c>
       <c r="D85">
-        <v>-0.0502314233128266</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.03838038103572883</v>
+      </c>
+      <c r="E85">
+        <v>0.01800275093748377</v>
+      </c>
+      <c r="F85">
+        <v>-0.03445592119658759</v>
+      </c>
+      <c r="G85">
+        <v>0.00625699437391786</v>
+      </c>
+      <c r="H85">
+        <v>-0.1455717833915633</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05268084785696348</v>
+        <v>-0.05575142384514859</v>
       </c>
       <c r="C86">
-        <v>0.02414353417199671</v>
+        <v>0.008864667571549656</v>
       </c>
       <c r="D86">
-        <v>-0.06416170034330915</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03445728120085555</v>
+      </c>
+      <c r="E86">
+        <v>0.03841271531740292</v>
+      </c>
+      <c r="F86">
+        <v>-0.02392919943364815</v>
+      </c>
+      <c r="G86">
+        <v>0.04266375314424737</v>
+      </c>
+      <c r="H86">
+        <v>0.04596892000571109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1242589313239969</v>
+        <v>-0.1265601182855937</v>
       </c>
       <c r="C87">
-        <v>0.07545623407403484</v>
+        <v>0.0359035643710125</v>
       </c>
       <c r="D87">
-        <v>-0.06857487673222343</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.06778401640102265</v>
+      </c>
+      <c r="E87">
+        <v>0.02447633682101092</v>
+      </c>
+      <c r="F87">
+        <v>-0.02670251401535454</v>
+      </c>
+      <c r="G87">
+        <v>-0.1517026716696723</v>
+      </c>
+      <c r="H87">
+        <v>0.07518314625828926</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.0542400459789219</v>
+        <v>-0.06319793066969788</v>
       </c>
       <c r="C88">
-        <v>0.03169071719174734</v>
+        <v>0.01983188955722055</v>
       </c>
       <c r="D88">
-        <v>-0.02448598262577031</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03821529105220713</v>
+      </c>
+      <c r="E88">
+        <v>0.00515698869482669</v>
+      </c>
+      <c r="F88">
+        <v>-0.02112703253596937</v>
+      </c>
+      <c r="G88">
+        <v>-0.0115486068900592</v>
+      </c>
+      <c r="H88">
+        <v>-0.03819306671109727</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08147358807252915</v>
+        <v>-0.1039656284672344</v>
       </c>
       <c r="C89">
-        <v>0.06647496164683693</v>
+        <v>0.1218604640605334</v>
       </c>
       <c r="D89">
-        <v>0.3233241770950093</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3403340515975086</v>
+      </c>
+      <c r="E89">
+        <v>0.06110794850697638</v>
+      </c>
+      <c r="F89">
+        <v>-0.06751161575610277</v>
+      </c>
+      <c r="G89">
+        <v>0.02338682278766201</v>
+      </c>
+      <c r="H89">
+        <v>-0.01678419853925844</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.0622454576013127</v>
+        <v>-0.08060303190680269</v>
       </c>
       <c r="C90">
-        <v>0.05576001756604832</v>
+        <v>0.1003009647371259</v>
       </c>
       <c r="D90">
-        <v>0.2804141086691896</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2808293229963488</v>
+      </c>
+      <c r="E90">
+        <v>0.05203247556354532</v>
+      </c>
+      <c r="F90">
+        <v>-0.02790331682212626</v>
+      </c>
+      <c r="G90">
+        <v>-0.02374130295196875</v>
+      </c>
+      <c r="H90">
+        <v>0.00933477803498795</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08970658924590857</v>
+        <v>-0.09028167869949985</v>
       </c>
       <c r="C91">
-        <v>0.04909894467092539</v>
+        <v>0.02386819392717542</v>
       </c>
       <c r="D91">
-        <v>-0.01402963182086403</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03203304260114353</v>
+      </c>
+      <c r="E91">
+        <v>0.006431763511853247</v>
+      </c>
+      <c r="F91">
+        <v>-0.003979141782919009</v>
+      </c>
+      <c r="G91">
+        <v>0.01335327428140895</v>
+      </c>
+      <c r="H91">
+        <v>-0.08447995669217118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.06712892206696043</v>
+        <v>-0.08189392499953635</v>
       </c>
       <c r="C92">
-        <v>0.06410221687755052</v>
+        <v>0.1148711031876858</v>
       </c>
       <c r="D92">
-        <v>0.3366904516096267</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.3301821205738641</v>
+      </c>
+      <c r="E92">
+        <v>0.05195984602300027</v>
+      </c>
+      <c r="F92">
+        <v>-0.0347912963315952</v>
+      </c>
+      <c r="G92">
+        <v>-0.003892749823593477</v>
+      </c>
+      <c r="H92">
+        <v>-0.01559401970990985</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.05851853769347445</v>
+        <v>-0.07856165169043103</v>
       </c>
       <c r="C93">
-        <v>0.06068775697023601</v>
+        <v>0.1112724211833295</v>
       </c>
       <c r="D93">
-        <v>0.3010654792456048</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2966817528283732</v>
+      </c>
+      <c r="E93">
+        <v>0.02795877412272476</v>
+      </c>
+      <c r="F93">
+        <v>-0.02923568082757646</v>
+      </c>
+      <c r="G93">
+        <v>-0.01516500244437359</v>
+      </c>
+      <c r="H93">
+        <v>-0.005700756931775411</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1341931713512805</v>
+        <v>-0.1290297474441313</v>
       </c>
       <c r="C94">
-        <v>0.04326977504183417</v>
+        <v>0.007847459941147881</v>
       </c>
       <c r="D94">
-        <v>-0.0410254569965357</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04728612574616894</v>
+      </c>
+      <c r="E94">
+        <v>-0.01992363814015283</v>
+      </c>
+      <c r="F94">
+        <v>-0.01765282052381737</v>
+      </c>
+      <c r="G94">
+        <v>0.0306131508570104</v>
+      </c>
+      <c r="H94">
+        <v>-0.106845944328234</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1198375871993531</v>
+        <v>-0.1284066298688464</v>
       </c>
       <c r="C95">
-        <v>0.01679476717377769</v>
+        <v>-0.009515511447727026</v>
       </c>
       <c r="D95">
-        <v>-0.05457765398592617</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.055249447786638</v>
+      </c>
+      <c r="E95">
+        <v>0.003679221139040759</v>
+      </c>
+      <c r="F95">
+        <v>-0.05201425638470777</v>
+      </c>
+      <c r="G95">
+        <v>-0.02673935692527784</v>
+      </c>
+      <c r="H95">
+        <v>0.1119591995246554</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2202138452463659</v>
+        <v>-0.1941416631498467</v>
       </c>
       <c r="C97">
-        <v>0.03851041837326558</v>
+        <v>-0.01536973482028461</v>
       </c>
       <c r="D97">
-        <v>0.09953787033904597</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.06114462623359468</v>
+      </c>
+      <c r="E97">
+        <v>-0.07547524286671173</v>
+      </c>
+      <c r="F97">
+        <v>0.9356012834760804</v>
+      </c>
+      <c r="G97">
+        <v>-0.06022215298453549</v>
+      </c>
+      <c r="H97">
+        <v>0.02524122849318066</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2413787034395926</v>
+        <v>-0.272366456562986</v>
       </c>
       <c r="C98">
-        <v>0.0516809874272432</v>
+        <v>0.0114699193088839</v>
       </c>
       <c r="D98">
-        <v>-0.01376409219981129</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.04039134576740813</v>
+      </c>
+      <c r="E98">
+        <v>-0.2025536085042481</v>
+      </c>
+      <c r="F98">
+        <v>-0.04759603736716244</v>
+      </c>
+      <c r="G98">
+        <v>0.3101869787168969</v>
+      </c>
+      <c r="H98">
+        <v>0.2177487617212454</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.4110866913786466</v>
+        <v>-0.2642226178666537</v>
       </c>
       <c r="C99">
-        <v>-0.8926626366335146</v>
+        <v>-0.9178798563847214</v>
       </c>
       <c r="D99">
-        <v>0.05259142379569811</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.225234012139449</v>
+      </c>
+      <c r="E99">
+        <v>0.06763212989678889</v>
+      </c>
+      <c r="F99">
+        <v>-0.07669090583993714</v>
+      </c>
+      <c r="G99">
+        <v>-0.01429387058589735</v>
+      </c>
+      <c r="H99">
+        <v>-0.07797704741926717</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04468418611927389</v>
+        <v>-0.04713376821987833</v>
       </c>
       <c r="C101">
-        <v>0.03145413171020858</v>
+        <v>0.02277295966711271</v>
       </c>
       <c r="D101">
-        <v>-0.003268787626859807</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01239530653097064</v>
+      </c>
+      <c r="E101">
+        <v>0.05591058372832885</v>
+      </c>
+      <c r="F101">
+        <v>-0.01193463403779679</v>
+      </c>
+      <c r="G101">
+        <v>-0.007907771069988346</v>
+      </c>
+      <c r="H101">
+        <v>-0.06786406153849664</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
